--- a/PosTable.xlsx
+++ b/PosTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10725" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10725" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재고관리" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,18 @@
     <sheet name="반품관리" sheetId="3" r:id="rId3"/>
     <sheet name="마일리지" sheetId="4" r:id="rId4"/>
     <sheet name="직급" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="지역" sheetId="6" r:id="rId6"/>
+    <sheet name="제품" sheetId="7" r:id="rId7"/>
+    <sheet name="판매" sheetId="8" r:id="rId8"/>
+    <sheet name="직원" sheetId="9" r:id="rId9"/>
+    <sheet name="매장관리" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="83">
   <si>
     <t>테이블 정의서</t>
   </si>
@@ -281,6 +285,111 @@
   <si>
     <t>LocName</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>ProNum</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>CatNum</t>
+  </si>
+  <si>
+    <t>Fk</t>
+  </si>
+  <si>
+    <t>InvenNum</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+  </si>
+  <si>
+    <t>ProName</t>
+  </si>
+  <si>
+    <t>SaleCost</t>
+  </si>
+  <si>
+    <t>PurchaseCost</t>
+  </si>
+  <si>
+    <t>ExpirationDate</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Surtax</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>SaleNum</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <t>StoreNum</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>SellTime</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Empid</t>
+  </si>
+  <si>
+    <t>EmpPwd</t>
+  </si>
+  <si>
+    <t>WorkTime</t>
+  </si>
+  <si>
+    <t>RankNum</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>LocNum</t>
+  </si>
+  <si>
+    <t>StoreName</t>
+  </si>
+  <si>
+    <t>BuNum</t>
   </si>
 </sst>
 </file>
@@ -300,10 +409,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -450,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,31 +575,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,70 +930,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="16">
         <v>43104</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -897,46 +1011,46 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2"/>
@@ -944,17 +1058,17 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2"/>
@@ -962,8 +1076,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="2">
@@ -976,8 +1090,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
@@ -988,8 +1102,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
@@ -1000,8 +1114,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -1012,8 +1126,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
@@ -1024,8 +1138,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -1036,8 +1150,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
@@ -1048,8 +1162,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -1060,8 +1174,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
@@ -1072,8 +1186,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -1084,8 +1198,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -1096,16 +1210,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
@@ -1116,15 +1230,15 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,85 +1246,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094AD1D8-208E-4FCF-99A1-00D152C2E5A5}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57BE232-1773-4788-8001-8CAAC681F391}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="A1:J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="16">
         <v>43104</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1228,83 +1338,91 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -1315,8 +1433,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -1327,8 +1445,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -1339,8 +1457,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -1351,8 +1469,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -1363,8 +1481,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -1375,8 +1493,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -1387,8 +1505,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -1399,8 +1517,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -1411,8 +1529,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -1423,8 +1541,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1458,6 +1576,332 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094AD1D8-208E-4FCF-99A1-00D152C2E5A5}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I19" sqref="A1:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43104</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0380588A-CCFE-48EF-A284-8895A31B205C}">
   <dimension ref="A1:J19"/>
@@ -1469,70 +1913,70 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="16">
         <v>43104</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1550,86 +1994,86 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="3"/>
@@ -1637,17 +2081,17 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3"/>
@@ -1655,8 +2099,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -1667,8 +2111,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -1679,8 +2123,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -1691,8 +2135,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -1703,8 +2147,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -1715,8 +2159,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -1727,8 +2171,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -1739,8 +2183,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -1751,8 +2195,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -1763,8 +2207,1338 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73EE641-9703-450D-9A58-221736C94A52}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43104</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0E0941-76C8-40FF-8F26-5777A6D5851F}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="A1:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43104</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58AD679-5B8A-4E9C-8AC4-F56CBD884F0C}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43104</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28928A9E-46FE-490A-B95F-858A147EE12F}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43104</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1798,81 +3572,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73EE641-9703-450D-9A58-221736C94A52}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922FB906-E3BB-4129-946C-5EADB04BC4F6}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="16">
         <v>43104</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1890,157 +3664,205 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -2051,8 +3873,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -2063,8 +3885,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -2075,8 +3897,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2087,8 +3909,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2122,81 +3944,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0E0941-76C8-40FF-8F26-5777A6D5851F}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2441BFC-0A7D-458E-B66B-493CAA24824A}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="A1:J19"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="16">
         <v>43104</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -2214,97 +4036,105 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -2315,8 +4145,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -2327,8 +4157,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -2339,8 +4169,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -2351,8 +4181,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -2363,8 +4193,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -2375,8 +4205,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -2387,8 +4217,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -2399,8 +4229,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2411,326 +4241,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58AD679-5B8A-4E9C-8AC4-F56CBD884F0C}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11">
-        <v>43104</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/PosTable.xlsx
+++ b/PosTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10725" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10725" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재고관리" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>테이블 정의서</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Fk</t>
   </si>
   <si>
-    <t>InvenNum</t>
-  </si>
-  <si>
     <t>Barcode</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>WorkTime</t>
   </si>
   <si>
-    <t>RankNum</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
@@ -392,9 +386,6 @@
     <t>StoreName</t>
   </si>
   <si>
-    <t>BuNum</t>
-  </si>
-  <si>
     <t>Event</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -407,14 +398,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>EveNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Fk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -436,10 +419,6 @@
   </si>
   <si>
     <t>SupPhone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupNum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +503,92 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>roNum</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreAddr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelePhone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpImg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HireDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -532,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -568,6 +633,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -705,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,6 +792,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,9 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,7 +1142,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1077,70 +1151,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1158,17 +1232,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -1187,58 +1261,64 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
@@ -1249,8 +1329,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
@@ -1261,8 +1341,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -1273,8 +1353,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
@@ -1285,8 +1365,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
@@ -1297,8 +1377,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
@@ -1309,8 +1389,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -1321,8 +1401,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
@@ -1333,8 +1413,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -1345,8 +1425,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -1357,8 +1437,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1397,77 +1477,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2441BFC-0A7D-458E-B66B-493CAA24824A}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1485,24 +1565,24 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
@@ -1514,33 +1594,33 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>51</v>
@@ -1550,76 +1630,91 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -1630,8 +1725,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -1642,8 +1737,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -1654,8 +1749,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -1666,8 +1761,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -1678,8 +1773,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -1690,8 +1785,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1730,76 +1825,76 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J19"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1817,24 +1912,24 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
@@ -1846,15 +1941,15 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>51</v>
@@ -1864,68 +1959,80 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -1936,8 +2043,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -1948,8 +2055,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -1960,8 +2067,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -1972,8 +2079,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -1984,8 +2091,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -1996,8 +2103,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -2008,8 +2115,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2020,8 +2127,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2067,70 +2174,70 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -2148,24 +2255,24 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -2177,15 +2284,15 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2195,8 +2302,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
@@ -2209,8 +2316,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
@@ -2223,8 +2330,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -2235,8 +2342,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -2247,8 +2354,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -2259,8 +2366,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -2271,8 +2378,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -2283,8 +2390,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -2295,8 +2402,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -2307,8 +2414,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -2319,8 +2426,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -2331,8 +2438,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2343,16 +2450,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
@@ -2360,11 +2462,11 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:J1"/>
@@ -2372,6 +2474,11 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,70 +2496,70 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -2470,24 +2577,24 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -2499,15 +2606,15 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2517,15 +2624,15 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -2535,15 +2642,15 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -2553,8 +2660,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -2565,8 +2672,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -2577,8 +2684,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -2589,8 +2696,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -2601,8 +2708,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -2613,8 +2720,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -2625,8 +2732,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -2637,8 +2744,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -2649,8 +2756,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -2661,8 +2768,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2673,16 +2780,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
@@ -2690,11 +2792,11 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:J1"/>
@@ -2702,9 +2804,15 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2723,70 +2831,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -2804,17 +2912,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -2833,8 +2941,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -2851,8 +2959,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
@@ -2865,8 +2973,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
@@ -2879,8 +2987,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -2891,8 +2999,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -2903,8 +3011,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -2915,8 +3023,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -2927,8 +3035,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -2939,8 +3047,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -2951,8 +3059,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -2963,8 +3071,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -2975,8 +3083,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -2987,8 +3095,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -2999,8 +3107,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3045,70 +3153,70 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -3126,17 +3234,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -3155,8 +3263,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -3175,8 +3283,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
@@ -3195,8 +3303,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
@@ -3213,8 +3321,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
@@ -3231,8 +3339,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -3243,8 +3351,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -3255,8 +3363,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -3267,8 +3375,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -3279,8 +3387,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -3291,8 +3399,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -3303,8 +3411,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -3315,8 +3423,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -3327,8 +3435,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -3339,8 +3447,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3379,76 +3487,76 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -3466,17 +3574,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -3495,8 +3603,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -3513,8 +3621,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
@@ -3531,26 +3639,26 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -3561,8 +3669,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -3573,8 +3681,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -3585,8 +3693,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -3597,8 +3705,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -3609,8 +3717,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -3621,8 +3729,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -3633,8 +3741,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -3645,8 +3753,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -3657,8 +3765,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -3669,8 +3777,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3715,70 +3823,70 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -3796,17 +3904,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -3825,8 +3933,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -3843,8 +3951,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
@@ -3861,8 +3969,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3"/>
@@ -3873,8 +3981,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -3885,8 +3993,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -3897,8 +4005,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -3909,8 +4017,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -3921,8 +4029,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -3933,8 +4041,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -3945,8 +4053,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -3957,8 +4065,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -3969,8 +4077,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -3981,8 +4089,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -3993,8 +4101,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4039,70 +4147,70 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -4120,17 +4228,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -4149,8 +4257,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -4167,8 +4275,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3"/>
@@ -4179,8 +4287,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3"/>
@@ -4191,8 +4299,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -4203,8 +4311,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -4215,8 +4323,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -4227,8 +4335,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -4239,8 +4347,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -4251,8 +4359,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -4263,8 +4371,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -4275,8 +4383,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -4287,8 +4395,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -4299,8 +4407,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -4311,8 +4419,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4351,76 +4459,76 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -4438,17 +4546,17 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
@@ -4467,8 +4575,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -4487,110 +4595,108 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
+      <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>87</v>
+      <c r="B9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4601,8 +4707,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3">
@@ -4612,51 +4718,47 @@
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -4667,8 +4769,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -4679,8 +4781,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -4691,8 +4793,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4730,77 +4832,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264E8813-E731-42C1-9CBB-15B7A5FCBC45}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -4818,24 +4920,24 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -4847,26 +4949,26 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3"/>
@@ -4877,8 +4979,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3"/>
@@ -4889,8 +4991,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
@@ -4901,8 +5003,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3"/>
@@ -4913,8 +5015,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
@@ -4925,8 +5027,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
@@ -4937,8 +5039,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
@@ -4949,8 +5051,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
@@ -4961,8 +5063,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -4973,8 +5075,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -4985,8 +5087,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -4997,8 +5099,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -5009,16 +5111,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
@@ -5026,11 +5123,11 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:J1"/>
@@ -5038,6 +5135,11 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5049,76 +5151,76 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>43104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -5136,24 +5238,24 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
@@ -5165,8 +5267,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3">
@@ -5185,15 +5287,15 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>51</v>
@@ -5205,15 +5307,15 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>51</v>
@@ -5225,15 +5327,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
@@ -5243,15 +5345,15 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>51</v>
@@ -5261,15 +5363,15 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
@@ -5279,33 +5381,33 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>51</v>
@@ -5315,15 +5417,15 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>51</v>
@@ -5333,8 +5435,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3"/>
@@ -5345,8 +5447,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
@@ -5357,8 +5459,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -5369,8 +5471,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
@@ -5381,8 +5483,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
